--- a/00_config/xlsx/ods_new.xlsx
+++ b/00_config/xlsx/ods_new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\autoload\00_config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoETL\00_config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5D7DED-DAA9-44B0-9107-02527B9E26F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BA1B5-2C61-42A6-8A88-58E19A528FBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="6" r:id="rId1"/>
@@ -1298,11 +1298,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1583,26 +1583,26 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="59.875" customWidth="1"/>
+    <col min="3" max="3" width="36.125" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="71.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>356</v>
       </c>
       <c r="B2">
@@ -1621,7 +1621,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C3">
@@ -1629,7 +1629,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C4">
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C5">
@@ -1662,14 +1662,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W393"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
-    <col min="2" max="3" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="11.5"/>
     <col min="13" max="13" width="11.5"/>
@@ -1711,7 +1712,7 @@
       <c r="A2" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>358</v>
       </c>
       <c r="C2" t="s">
@@ -1731,7 +1732,7 @@
       <c r="A3" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>360</v>
       </c>
       <c r="C3" t="s">
